--- a/data/trans_bre/P3A_R1-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P3A_R1-Provincia-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-17.44085282220992</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-0.2061821908017403</v>
+        <v>-0.2061821908017458</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.2510256665095311</v>
@@ -649,7 +649,7 @@
         <v>-0.5606210080983517</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.008346566152224564</v>
+        <v>-0.008346566152224786</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-11.08406380432592</v>
+        <v>-12.01433094276045</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-27.77475397601598</v>
+        <v>-27.03723999362173</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-24.31260338910039</v>
+        <v>-24.0385495826229</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-7.073504943789817</v>
+        <v>-6.197381365332364</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.4759929206414808</v>
+        <v>-0.5055203347215647</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.8078579356518236</v>
+        <v>-0.8106444681160716</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.6892361726495686</v>
+        <v>-0.6932637068615308</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.252462900428798</v>
+        <v>-0.2202257975471058</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.876402771970946</v>
+        <v>2.087416855171222</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-14.02088725882375</v>
+        <v>-13.55612030932712</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-10.22862186125414</v>
+        <v>-9.921018200857358</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.018719027959455</v>
+        <v>5.804876943593384</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.1344965901112845</v>
+        <v>0.1288825113195692</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>-0.5268482592055768</v>
+        <v>-0.5296628537661578</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>-0.3719950877832142</v>
+        <v>-0.3692120271942471</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.2393452144544087</v>
+        <v>0.2690815308688018</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-15.72228635143213</v>
+        <v>-16.15304052393765</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-16.36553443808941</v>
+        <v>-16.3655551239233</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-19.43594561464012</v>
+        <v>-18.82960591538591</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-17.05426020298996</v>
+        <v>-16.51882729559071</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5698016255631734</v>
+        <v>-0.5751303953095811</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.6032134776914785</v>
+        <v>-0.6062144480781598</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.588132402383019</v>
+        <v>-0.5801837262464402</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3644821315111766</v>
+        <v>-0.3662413213593237</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-5.795151129394077</v>
+        <v>-6.360453573450668</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-5.855835547394568</v>
+        <v>-6.167709911960782</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-8.548317431312691</v>
+        <v>-8.208078811522746</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-4.387451764852003</v>
+        <v>-4.166437641317172</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.2645044267032872</v>
+        <v>-0.2694581136265531</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.2660540018382742</v>
+        <v>-0.2848847691460702</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.3188047414533541</v>
+        <v>-0.3137085961671421</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.1154832511183501</v>
+        <v>-0.1157443943993905</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-16.60984819868312</v>
+        <v>-16.60521603141673</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-20.90392095772198</v>
+        <v>-20.8265879186892</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-25.05336921599578</v>
+        <v>-25.13461073155899</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-9.818647505255203</v>
+        <v>-9.352737391744698</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.7347587070436883</v>
+        <v>-0.7385734147097115</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.7285914276621328</v>
+        <v>-0.7289042356904427</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.5649419124724522</v>
+        <v>-0.5661858379469421</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.263331535390513</v>
+        <v>-0.2602948616668428</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-6.146420775690904</v>
+        <v>-5.952625080978674</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-9.081330731198038</v>
+        <v>-9.397077166486168</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-11.31085560704272</v>
+        <v>-11.23989030197103</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.395881008962204</v>
+        <v>3.332122110958655</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>-0.3727278947473093</v>
+        <v>-0.3649500545163467</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>-0.3971801771747035</v>
+        <v>-0.412715559739583</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>-0.292401019956932</v>
+        <v>-0.3117529912952637</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.1234085614847728</v>
+        <v>0.1175257039601055</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-18.80015539609176</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-13.23354192883656</v>
+        <v>-13.23354192883657</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.0982476560032941</v>
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-7.814289826153807</v>
+        <v>-8.329485833270445</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-23.24035815624826</v>
+        <v>-23.3722971340452</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-24.74089061599209</v>
+        <v>-24.904727070507</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-20.2014202969877</v>
+        <v>-20.17449239574717</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3396467297369785</v>
+        <v>-0.3533104287157288</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.6993477117081718</v>
+        <v>-0.6956720219461991</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.7022071261393823</v>
+        <v>-0.7030841329993754</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.5531884454772371</v>
+        <v>-0.5549658106449675</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.063311067677041</v>
+        <v>3.012873027377097</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-11.66418760773535</v>
+        <v>-10.91146522505047</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-12.4466617700576</v>
+        <v>-12.71552126386136</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-6.326797901288756</v>
+        <v>-5.86982979054507</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.234408761034793</v>
+        <v>0.1695990791108262</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.4365182654123544</v>
+        <v>-0.4098141853668068</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.4380477790463231</v>
+        <v>-0.4465007813668295</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.2460700523090265</v>
+        <v>-0.2225005220374059</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>-17.753693308707</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-1.050451415033887</v>
+        <v>-1.050451415033876</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.4842596875339517</v>
@@ -1049,7 +1049,7 @@
         <v>-0.4895239559918823</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.04479052099468068</v>
+        <v>-0.04479052099468023</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-17.44961994168704</v>
+        <v>-17.60037734112415</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-11.64913221904625</v>
+        <v>-10.7932949957444</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-26.14486217137214</v>
+        <v>-26.11472440392723</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-7.642609882659792</v>
+        <v>-8.286273850147566</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.6968882722051362</v>
+        <v>-0.7081642204828345</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.5040770711051047</v>
+        <v>-0.4752558286197305</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.6397108437804859</v>
+        <v>-0.634597142433214</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.2746785852310746</v>
+        <v>-0.2868017170207893</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-3.489439611518816</v>
+        <v>-3.272055701457251</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.889279610193867</v>
+        <v>3.586663758114557</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-9.824394366034777</v>
+        <v>-9.386595014072343</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.748829000334657</v>
+        <v>4.675018815444967</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>-0.1788921507726985</v>
+        <v>-0.1714617032714389</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2505389735283217</v>
+        <v>0.234464977304455</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>-0.3050290344771095</v>
+        <v>-0.2912321173354471</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.2421280621994149</v>
+        <v>0.2413011156747588</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>-13.60402049901656</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>-3.944120070640622</v>
+        <v>-3.944120070640633</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.2648552474604718</v>
@@ -1149,7 +1149,7 @@
         <v>-0.5396671628094188</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>-0.09696981103282433</v>
+        <v>-0.09696981103282462</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-10.74979684915399</v>
+        <v>-11.45656706132504</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-18.61075914527254</v>
+        <v>-19.18529013496262</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-20.12729751060263</v>
+        <v>-19.96303490537732</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-11.17596489582343</v>
+        <v>-10.6802823275595</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.5254982630114677</v>
+        <v>-0.5170641099761012</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.553647548773296</v>
+        <v>-0.5465285911998354</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.7010564502057073</v>
+        <v>-0.6943868474433794</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2553189734991599</v>
+        <v>-0.2427511227039267</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>1.304689374604721</v>
+        <v>1.418319618598218</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>-4.038797139811781</v>
+        <v>-4.721987327244626</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>-6.596884869745099</v>
+        <v>-6.453833936863405</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>3.019747765695183</v>
+        <v>3.837225392518835</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1077882704815075</v>
+        <v>0.1098021212344492</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.1560262512008337</v>
+        <v>-0.1767984360964415</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.312058821833747</v>
+        <v>-0.3032355978978276</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.07964877163686596</v>
+        <v>0.1038481655128709</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>-6.039367856252956</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>-6.226508496869551</v>
+        <v>-6.226508496869548</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>-0.5517536477540415</v>
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-17.59715790218912</v>
+        <v>-17.4025959679897</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-14.19186476094971</v>
+        <v>-14.25596481298021</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-10.68514848013175</v>
+        <v>-10.51004948014515</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-10.92780111287686</v>
+        <v>-10.77522196944522</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.6634322881781894</v>
+        <v>-0.6677916310486486</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.4812032492122775</v>
+        <v>-0.4746166001390689</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.3426500055673327</v>
+        <v>-0.3325316676159188</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.3425646409960934</v>
+        <v>-0.3385768759236189</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-8.918363863439691</v>
+        <v>-8.680411388222366</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-5.20679007593158</v>
+        <v>-4.780548976322898</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-1.18432497852402</v>
+        <v>-1.102473401510273</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-1.333397708292761</v>
+        <v>-1.843173541005061</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>-0.4141325009136391</v>
+        <v>-0.4230652119758001</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>-0.2001963020764861</v>
+        <v>-0.1871942748418328</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>-0.04635533699762345</v>
+        <v>-0.04056342620470327</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>-0.05927466538113133</v>
+        <v>-0.06439921476596577</v>
       </c>
     </row>
     <row r="25">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-12.72924594462756</v>
+        <v>-12.72208095158316</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-17.12625540197379</v>
+        <v>-16.96422891242178</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-18.77377154592994</v>
+        <v>-18.89895438675189</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-14.95839013193834</v>
+        <v>-15.25388777267639</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.6136028722861265</v>
+        <v>-0.6126143956188725</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.5283127469561311</v>
+        <v>-0.5281682539729934</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.4840554567787876</v>
+        <v>-0.4962764027398813</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.7813244125349706</v>
+        <v>-0.7823730372533632</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>-5.189135640588902</v>
+        <v>-5.55966892219547</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>-7.9749587644274</v>
+        <v>-8.212550484303522</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>-9.251887642736307</v>
+        <v>-9.782139253742592</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>-9.159480273199797</v>
+        <v>-9.365989138771351</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.3184662713324674</v>
+        <v>-0.3296305453678907</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.2934337837450496</v>
+        <v>-0.2949131413439089</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.2768673372073787</v>
+        <v>-0.2896135197077976</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.6113225497478815</v>
+        <v>-0.609784953817855</v>
       </c>
     </row>
     <row r="28">
@@ -1437,7 +1437,7 @@
         <v>-13.84653619887218</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>-7.695267835899299</v>
+        <v>-7.695267835899297</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>-0.4266099040227959</v>
@@ -1449,7 +1449,7 @@
         <v>-0.4272008287281406</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>-0.2650757279183494</v>
+        <v>-0.2650757279183493</v>
       </c>
     </row>
     <row r="29">
@@ -1460,28 +1460,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-10.67688797453592</v>
+        <v>-10.72208112845526</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-14.5212512294094</v>
+        <v>-14.52786741350281</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-15.85504604435679</v>
+        <v>-15.84391754028512</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-9.4890446929086</v>
+        <v>-9.644397797460345</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>-0.4847488218942516</v>
+        <v>-0.4926273919098472</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>-0.5098248710882989</v>
+        <v>-0.5099276146568591</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>-0.4746174102517119</v>
+        <v>-0.4729041125943932</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>-0.3191662760258789</v>
+        <v>-0.3190725713414035</v>
       </c>
     </row>
     <row r="30">
@@ -1492,28 +1492,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-6.984483819972723</v>
+        <v>-7.069671633432494</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-10.39191538667952</v>
+        <v>-10.42152321884362</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-11.66120700946188</v>
+        <v>-11.78978152736621</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>-5.534688710475312</v>
+        <v>-5.825740836071512</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>-0.3495363662429206</v>
+        <v>-0.3574647073888658</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>-0.3964124193181757</v>
+        <v>-0.3992632978376382</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>-0.3728657802914093</v>
+        <v>-0.3782328999894365</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>-0.2025824347547595</v>
+        <v>-0.2096975779092644</v>
       </c>
     </row>
     <row r="31">
